--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -432,14 +432,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tipo de Pago</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cantidad ($)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tipo de Pago</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,31 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11/1/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Leotardo 10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,14 +479,64 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>390</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sabritas</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11/1/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>260</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sabritas</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/1/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1200</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Leotardo 10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -414,14 +414,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tipo de Pago</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cantidad ($)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tipo de Pago</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,13 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>Descripcion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Inscripcion de Jacobo Ganon Moragrega</t>
         </is>
       </c>
     </row>

--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -450,11 +450,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Inscripcion de Jacobo Ganon Moragrega</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/income_expenses.xlsx
+++ b/income_expenses.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Ingresos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Egresos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Estudiantes" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,9 +450,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -576,4 +575,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>